--- a/Library/SmokeSanityTestCases.xlsx
+++ b/Library/SmokeSanityTestCases.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QA\Automation\AutomationTest\Library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QA\AutomationTest\Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26328" yWindow="0" windowWidth="13908" windowHeight="12300"/>
+    <workbookView xWindow="26325" yWindow="0" windowWidth="13905" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -162,7 +162,7 @@
     <t>OnHold: LPH</t>
   </si>
   <si>
-    <t>Laboratory\TC006GenerateLabReport(OP).py</t>
+    <t>Laboratory\TC005GenerateLabReport.py</t>
   </si>
 </sst>
 </file>
@@ -522,19 +522,19 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.5546875" customWidth="1"/>
+    <col min="1" max="1" width="54.5703125" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.33203125" customWidth="1"/>
+    <col min="3" max="4" width="11.28515625" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -557,7 +557,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -576,7 +576,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>42</v>
       </c>
@@ -595,7 +595,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>47</v>
       </c>
@@ -614,7 +614,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -633,7 +633,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -652,7 +652,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
@@ -674,7 +674,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -693,7 +693,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -712,7 +712,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -731,7 +731,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -750,7 +750,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -769,7 +769,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>43</v>
       </c>
@@ -790,7 +790,7 @@
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -811,7 +811,7 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
@@ -832,7 +832,7 @@
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
@@ -853,7 +853,7 @@
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
@@ -874,7 +874,7 @@
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>41</v>
       </c>

--- a/Library/SmokeSanityTestCases.xlsx
+++ b/Library/SmokeSanityTestCases.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -63,48 +63,27 @@
     <t>TC006</t>
   </si>
   <si>
-    <t>ADT\TC009AdmissionDischargeTransferToBeRefund.py</t>
-  </si>
-  <si>
     <t>SanityTest</t>
   </si>
   <si>
-    <t>ADT\TC011AdmissionDischargeTransferNoDeposit.py</t>
-  </si>
-  <si>
-    <t>Nursing\TC001WardBilling&amp;AddVitals.py</t>
-  </si>
-  <si>
     <t>Appointment\TC002CreateAppointmentFollowup.py</t>
   </si>
   <si>
     <t>Reports\TC001BillingDashboardSummary.py</t>
   </si>
   <si>
-    <t>Reports\TC003SalesDayBookReport.py</t>
-  </si>
-  <si>
     <t>TC007</t>
   </si>
   <si>
     <t>TC008</t>
   </si>
   <si>
-    <t>Reports\TC005IncomeSegregationReport.py</t>
-  </si>
-  <si>
     <t>TC009</t>
   </si>
   <si>
-    <t>Reports\TC006PatientCreditSummaryReport.py</t>
-  </si>
-  <si>
     <t>TC010</t>
   </si>
   <si>
-    <t>Reports\TC007DoctorSummaryReport.py</t>
-  </si>
-  <si>
     <t>TC011</t>
   </si>
   <si>
@@ -129,40 +108,34 @@
     <t>TC014</t>
   </si>
   <si>
-    <t>TC016</t>
-  </si>
-  <si>
-    <t>TC017</t>
-  </si>
-  <si>
-    <t>TC018</t>
-  </si>
-  <si>
-    <t>TC019</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Inventory\TC001CreateGoodReceipt.py</t>
-  </si>
-  <si>
     <t>Billing\Opbilling\TC002OPDbillingLabXray.py</t>
   </si>
   <si>
-    <t>Billing\OPbilling\TC012CreateCopyOfItemsCreditInvoice.py</t>
-  </si>
-  <si>
-    <t>Deprecated: LPH</t>
-  </si>
-  <si>
-    <t>Hidden: LPH</t>
-  </si>
-  <si>
-    <t>OnHold: LPH</t>
-  </si>
-  <si>
     <t>Laboratory\TC005GenerateLabReport.py</t>
+  </si>
+  <si>
+    <t>Dispensary\TC001CreateDispensarySale.py</t>
+  </si>
+  <si>
+    <t>ADT\TC010AdmissionDischargeTransferToBePaid.py</t>
+  </si>
+  <si>
+    <t>Reports\TC011UserCollectionReport.py</t>
+  </si>
+  <si>
+    <t>Reports\TC002TotalItemsBillReport.py</t>
+  </si>
+  <si>
+    <t>Pharmacy\Reports\TC002UserCollectionReport.py</t>
+  </si>
+  <si>
+    <t>Inventory\TC002Verify_DirectDispatch&amp;PurchaseRequest.py</t>
+  </si>
+  <si>
+    <t>TC002</t>
   </si>
 </sst>
 </file>
@@ -227,9 +200,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -519,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,7 +522,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -554,15 +531,15 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
@@ -577,11 +554,11 @@
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>42</v>
+      <c r="A3" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
@@ -590,17 +567,17 @@
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>47</v>
+      <c r="A4" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
@@ -608,18 +585,18 @@
       <c r="D4" s="3">
         <v>0</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>9</v>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
@@ -627,18 +604,18 @@
       <c r="D5" s="3">
         <v>0</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
+      <c r="E5" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
+      <c r="A6" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
@@ -646,18 +623,18 @@
       <c r="D6" s="3">
         <v>0</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>13</v>
+      <c r="E6" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
@@ -665,233 +642,166 @@
       <c r="D7" s="3">
         <v>0</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>21</v>
+      <c r="E7" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="J7" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
+      <c r="A8" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>22</v>
+      <c r="E8" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
+      <c r="A9" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>24</v>
+      <c r="E9" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>17</v>
+      <c r="A10" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>26</v>
+      <c r="E10" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>18</v>
+      <c r="A11" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="3">
         <v>0</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>28</v>
+      <c r="E11" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>19</v>
+      <c r="A12" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="3">
         <v>0</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>29</v>
+      <c r="E12" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>43</v>
+      <c r="A13" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="3">
         <v>0</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="E13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="2"/>
+      <c r="A14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="A15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="B15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Library/SmokeSanityTestCases.xlsx
+++ b/Library/SmokeSanityTestCases.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QA\AutomationTest\Library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QA\Automation\AutomationTest\Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26325" yWindow="0" windowWidth="13905" windowHeight="12300"/>
+    <workbookView xWindow="27264" yWindow="0" windowWidth="13908" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -90,9 +90,6 @@
     <t>TC012</t>
   </si>
   <si>
-    <t>Norun</t>
-  </si>
-  <si>
     <t>Run No.</t>
   </si>
   <si>
@@ -136,6 +133,9 @@
   </si>
   <si>
     <t>TC002</t>
+  </si>
+  <si>
+    <t>NoRun</t>
   </si>
 </sst>
 </file>
@@ -499,19 +499,19 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="54.5703125" customWidth="1"/>
+    <col min="1" max="1" width="54.5546875" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.28515625" customWidth="1"/>
+    <col min="3" max="4" width="11.33203125" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -522,7 +522,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -531,15 +531,15 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
@@ -553,12 +553,12 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
@@ -567,17 +567,17 @@
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
@@ -591,12 +591,12 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>23</v>
+      <c r="B5" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
@@ -610,12 +610,12 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
@@ -629,12 +629,12 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
@@ -648,12 +648,12 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>23</v>
+      <c r="B8" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>6</v>
@@ -667,15 +667,15 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="J8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>33</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>14</v>
@@ -689,12 +689,12 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>14</v>
@@ -708,12 +708,12 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>23</v>
+      <c r="B11" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>14</v>
@@ -727,12 +727,12 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>14</v>
@@ -746,12 +746,12 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
+      <c r="B13" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>14</v>
@@ -765,12 +765,12 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>14</v>
@@ -779,17 +779,17 @@
         <v>0</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>14</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>

--- a/Library/SmokeSanityTestCases.xlsx
+++ b/Library/SmokeSanityTestCases.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="53">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -63,9 +63,6 @@
     <t>TC006</t>
   </si>
   <si>
-    <t>ADT\TC009AdmissionDischargeTransferToBeRefund.py</t>
-  </si>
-  <si>
     <t>SanityTest</t>
   </si>
   <si>
@@ -150,9 +147,6 @@
     <t>Billing\Opbilling\TC002OPDbillingLabXray.py</t>
   </si>
   <si>
-    <t>Billing\OPbilling\TC012CreateCopyOfItemsCreditInvoice.py</t>
-  </si>
-  <si>
     <t>Deprecated: LPH</t>
   </si>
   <si>
@@ -163,6 +157,27 @@
   </si>
   <si>
     <t>Laboratory\TC005GenerateLabReport.py</t>
+  </si>
+  <si>
+    <t>ADT\TC010AdmissionDischargeTransferToBePaid.py</t>
+  </si>
+  <si>
+    <t>Accounting\Post To Accounting</t>
+  </si>
+  <si>
+    <t>Env</t>
+  </si>
+  <si>
+    <t>SNCH</t>
+  </si>
+  <si>
+    <t>MPH</t>
+  </si>
+  <si>
+    <t>LPH</t>
+  </si>
+  <si>
+    <t>CHARAK</t>
   </si>
 </sst>
 </file>
@@ -200,7 +215,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -223,17 +238,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,7 +549,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,7 +572,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -554,7 +581,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -562,7 +592,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
@@ -575,13 +605,16 @@
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
+      <c r="H2" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
@@ -594,13 +627,16 @@
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
+      <c r="H3" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
@@ -613,13 +649,16 @@
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
+      <c r="H4" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
@@ -632,13 +671,16 @@
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
+      <c r="H5" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
@@ -651,13 +693,16 @@
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
+      <c r="H6" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
@@ -666,232 +711,268 @@
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
+      <c r="H7" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="J7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
+      <c r="H8" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
+      <c r="H9" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
+      <c r="H10" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="3">
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
+      <c r="H11" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="3">
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
+      <c r="H12" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="3">
         <v>0</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G13" s="2"/>
+      <c r="H13" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G14" s="2"/>
+      <c r="H14" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G15" s="2"/>
+      <c r="H15" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" s="3">
         <v>0</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
+      <c r="H18" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Library/SmokeSanityTestCases.xlsx
+++ b/Library/SmokeSanityTestCases.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QA\AutomationTest\Library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QA\Automation\AutomationTest\Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26325" yWindow="0" windowWidth="13905" windowHeight="12300"/>
+    <workbookView xWindow="27264" yWindow="0" windowWidth="13908" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -57,9 +57,6 @@
     <t>TC005</t>
   </si>
   <si>
-    <t>Pharmacy\TC003PharmacyOPDbilling.py</t>
-  </si>
-  <si>
     <t>TC006</t>
   </si>
   <si>
@@ -178,6 +175,9 @@
   </si>
   <si>
     <t>CHARAK</t>
+  </si>
+  <si>
+    <t>Dispensary\TC001CreateDispensarySale.py</t>
   </si>
 </sst>
 </file>
@@ -549,19 +549,19 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="54.5703125" customWidth="1"/>
+    <col min="1" max="1" width="54.5546875" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.28515625" customWidth="1"/>
+    <col min="3" max="4" width="11.33203125" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -572,7 +572,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -581,18 +581,18 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
@@ -606,15 +606,15 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
@@ -628,15 +628,15 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
@@ -650,15 +650,15 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
@@ -672,15 +672,15 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
@@ -689,20 +689,20 @@
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
@@ -711,267 +711,267 @@
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="3">
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="3">
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="3">
         <v>0</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" s="3">
         <v>0</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" s="3">
         <v>0</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" s="3">
         <v>0</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
